--- a/Samples/ExcelSample/sample.xlsx
+++ b/Samples/ExcelSample/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Project\C#\ExcelSample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Project\PlusUltra\Samples\ExcelSample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527FBFF0-686B-477E-941E-7A90B6F3DBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE1885A-A48F-48A0-9D91-2D2930615BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,49 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>hara sumito</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{4DF8041A-6A90-407B-845B-20FBE6469E66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>hara sumito:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>HelloWorld</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +86,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,6 +141,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8CB87E-4FCF-4981-BCBB-534AF966250B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="409575"/>
+          <a:ext cx="2933700" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,20 +470,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>